--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Fzd8.xlsx
@@ -540,40 +540,40 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N2">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P2">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q2">
-        <v>23.43102594291889</v>
+        <v>28.23618613788222</v>
       </c>
       <c r="R2">
-        <v>210.87923348627</v>
+        <v>254.12567524094</v>
       </c>
       <c r="S2">
-        <v>0.2090882688410119</v>
+        <v>0.2202906246458008</v>
       </c>
       <c r="T2">
-        <v>0.2090882688410119</v>
+        <v>0.2202906246458008</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N3">
         <v>19.361954</v>
       </c>
       <c r="O3">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P3">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q3">
-        <v>59.09887513062356</v>
+        <v>59.09887513062357</v>
       </c>
       <c r="R3">
         <v>531.889876175612</v>
       </c>
       <c r="S3">
-        <v>0.5273726178962981</v>
+        <v>0.4610724711480352</v>
       </c>
       <c r="T3">
-        <v>0.5273726178962982</v>
+        <v>0.4610724711480351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N4">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P4">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q4">
-        <v>26.11160369496111</v>
+        <v>36.91607094226868</v>
       </c>
       <c r="R4">
-        <v>235.00443325465</v>
+        <v>332.2446384804181</v>
       </c>
       <c r="S4">
-        <v>0.2330085770269888</v>
+        <v>0.2880085960486944</v>
       </c>
       <c r="T4">
-        <v>0.2330085770269889</v>
+        <v>0.2880085960486944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.558821666666667</v>
+        <v>3.083576666666666</v>
       </c>
       <c r="N5">
-        <v>7.676465</v>
+        <v>9.250729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="P5">
-        <v>0.2156728774407755</v>
+        <v>0.2272509363535097</v>
       </c>
       <c r="Q5">
-        <v>0.7378899628383333</v>
+        <v>0.8921517076477777</v>
       </c>
       <c r="R5">
-        <v>6.641009665545001</v>
+        <v>8.02936536883</v>
       </c>
       <c r="S5">
-        <v>0.006584608599763515</v>
+        <v>0.006960311707708811</v>
       </c>
       <c r="T5">
-        <v>0.006584608599763515</v>
+        <v>0.00696031170770881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.453984666666666</v>
+        <v>6.453984666666667</v>
       </c>
       <c r="N6">
         <v>19.361954</v>
       </c>
       <c r="O6">
-        <v>0.5439806384912758</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="P6">
-        <v>0.5439806384912759</v>
+        <v>0.4756405360586227</v>
       </c>
       <c r="Q6">
-        <v>1.861142012311333</v>
+        <v>1.867290508370445</v>
       </c>
       <c r="R6">
-        <v>16.750278110802</v>
+        <v>16.805614575334</v>
       </c>
       <c r="S6">
-        <v>0.01660802059497771</v>
+        <v>0.01456806491058754</v>
       </c>
       <c r="T6">
-        <v>0.01660802059497771</v>
+        <v>0.01456806491058754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.851558333333333</v>
+        <v>4.031477000000001</v>
       </c>
       <c r="N7">
-        <v>8.554675</v>
+        <v>12.094431</v>
       </c>
       <c r="O7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="P7">
-        <v>0.2403464840679487</v>
+        <v>0.2971085275878677</v>
       </c>
       <c r="Q7">
-        <v>0.8223067281416666</v>
+        <v>1.166401707722334</v>
       </c>
       <c r="R7">
-        <v>7.400760553275</v>
+        <v>10.497615369501</v>
       </c>
       <c r="S7">
-        <v>0.007337907040959861</v>
+        <v>0.009099931539173278</v>
       </c>
       <c r="T7">
-        <v>0.007337907040959863</v>
+        <v>0.009099931539173276</v>
       </c>
     </row>
   </sheetData>
